--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH06_SendNotification\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACFADE0-6E0F-4083-A138-458A61A233A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D9E209-F6CF-4C6E-A4CD-1D9AC904F5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21045" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>NewHire_SlackNotification</t>
+  </si>
+  <si>
+    <t>URL_BootcampFilesApp</t>
+  </si>
+  <si>
+    <t>BootcampFilesApp</t>
   </si>
 </sst>
 </file>
@@ -2795,7 +2801,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2858,7 +2864,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
